--- a/2_CodeMappingTemplates/Overlays/XXov_Overlay Schema Mapping to WaDE.xlsx
+++ b/2_CodeMappingTemplates/Overlays/XXov_Overlay Schema Mapping to WaDE.xlsx
@@ -1,25 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rjame\Documents\WSWC Documents\MappingStatesDataToWaDE2.0\2_CodeMappingTemplates\Regulatory\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rjame\Documents\WSWC Documents\MappingStatesDataToWaDE2.0\2_CodeMappingTemplates\Overlays\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB20A876-5232-41C6-A943-62A2B186161A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C459D540-3035-410F-A9B1-BBC4FEA3545F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" tabRatio="645" activeTab="1" xr2:uid="{00CC2BD5-2C7C-4716-9573-3E594BB9D2D1}"/>
+    <workbookView xWindow="-28920" yWindow="2475" windowWidth="29040" windowHeight="15720" tabRatio="645" activeTab="6" xr2:uid="{00CC2BD5-2C7C-4716-9573-3E594BB9D2D1}"/>
   </bookViews>
   <sheets>
     <sheet name="Mapping Notes" sheetId="1" r:id="rId1"/>
     <sheet name="Date" sheetId="16" r:id="rId2"/>
     <sheet name="Organizations" sheetId="7" r:id="rId3"/>
     <sheet name="ReportingUnits" sheetId="13" r:id="rId4"/>
-    <sheet name="RegulatoryOverlay" sheetId="14" r:id="rId5"/>
-    <sheet name="RegulatoryReportingUnits_fact" sheetId="15" r:id="rId6"/>
-    <sheet name="RegulatoryOverlayBridge_sites" sheetId="17" r:id="rId7"/>
+    <sheet name="Overlay" sheetId="14" r:id="rId5"/>
+    <sheet name="OverlayReportingunits" sheetId="15" r:id="rId6"/>
+    <sheet name="OverlayBridge_sites" sheetId="17" r:id="rId7"/>
     <sheet name="misc" sheetId="10" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -198,34 +198,10 @@
     <t>TX</t>
   </si>
   <si>
-    <t>RegulatoryOverlayID</t>
-  </si>
-  <si>
-    <t>RegulatoryOverlayUUID</t>
-  </si>
-  <si>
-    <t>RegulatoryOverlayNativeID</t>
-  </si>
-  <si>
-    <t>RegulatoryName</t>
-  </si>
-  <si>
-    <t>RegulatoryDescription</t>
-  </si>
-  <si>
     <t>NVarChar(MAX)</t>
   </si>
   <si>
-    <t>RegulatoryStatusCV</t>
-  </si>
-  <si>
     <t>OversightAgency</t>
-  </si>
-  <si>
-    <t>RegulatoryStatute</t>
-  </si>
-  <si>
-    <t>RegulatoryStatuteLink</t>
   </si>
   <si>
     <t>StatutoryEffectiveDate</t>
@@ -250,9 +226,6 @@
   </si>
   <si>
     <t>Central Platte NRD</t>
-  </si>
-  <si>
-    <t>RegulatoryOverlayTypeCV</t>
   </si>
   <si>
     <t>WaterSourceTypeCV</t>
@@ -334,9 +307,6 @@
   </si>
   <si>
     <t>TXag_RU12</t>
-  </si>
-  <si>
-    <t>RegulatoryOverlayBridgeID</t>
   </si>
   <si>
     <t>SiteID</t>
@@ -469,6 +439,36 @@
   </si>
   <si>
     <t>*Create date.csv file by hand</t>
+  </si>
+  <si>
+    <t>OverlayID</t>
+  </si>
+  <si>
+    <t>OverlayUUID</t>
+  </si>
+  <si>
+    <t>OverlayDescription</t>
+  </si>
+  <si>
+    <t>OverlayName</t>
+  </si>
+  <si>
+    <t>OverlayNativeID</t>
+  </si>
+  <si>
+    <t>OverlayStatusCV</t>
+  </si>
+  <si>
+    <t>Statute</t>
+  </si>
+  <si>
+    <t>StatuteLink</t>
+  </si>
+  <si>
+    <t>OverlayTypeCV</t>
+  </si>
+  <si>
+    <t>OverlayBridgeID</t>
   </si>
 </sst>
 </file>
@@ -1152,9 +1152,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1192,7 +1192,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1298,7 +1298,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1440,7 +1440,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1464,10 +1464,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="69" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="B1" s="69" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="C1" s="69" t="s">
         <v>5</v>
@@ -1478,23 +1478,23 @@
         <v>32</v>
       </c>
       <c r="C2" s="70" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="71" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="C3" s="70" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="71" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="C4" s="70" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -1535,7 +1535,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="72" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -1548,7 +1548,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3BE28D8-590B-4A0E-97AD-12782E26EA65}">
   <dimension ref="A1:K15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="H8" sqref="H8"/>
     </sheetView>
@@ -1577,7 +1577,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="79" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="D1" s="79" t="s">
         <v>2</v>
@@ -1586,13 +1586,13 @@
         <v>3</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="I1" s="8" t="s">
         <v>4</v>
@@ -1606,7 +1606,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="36" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="B2" s="11" t="s">
         <v>21</v>
@@ -1626,7 +1626,7 @@
       <c r="I2" s="16"/>
       <c r="J2" s="16"/>
       <c r="K2" s="82" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -1656,7 +1656,7 @@
         <v>8</v>
       </c>
       <c r="J3" s="54" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="K3" s="48" t="s">
         <v>49</v>
@@ -1690,12 +1690,12 @@
         <v>2013</v>
       </c>
       <c r="K4" s="48" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="18" x14ac:dyDescent="0.3">
       <c r="F7" s="78" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -1764,22 +1764,22 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="E1" s="29" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="I1" s="8" t="s">
         <v>4</v>
@@ -1823,7 +1823,7 @@
         <v>8</v>
       </c>
       <c r="K2" s="74" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1853,10 +1853,10 @@
         <v>8</v>
       </c>
       <c r="J3" s="77" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="K3" s="74" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
@@ -1886,10 +1886,10 @@
         <v>8</v>
       </c>
       <c r="J4" s="77" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="K4" s="74" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
@@ -1919,10 +1919,10 @@
         <v>8</v>
       </c>
       <c r="J5" s="77" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="K5" s="74" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
@@ -1952,10 +1952,10 @@
         <v>8</v>
       </c>
       <c r="J6" s="77" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="K6" s="74" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
@@ -1985,10 +1985,10 @@
         <v>8</v>
       </c>
       <c r="J7" s="77" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="K7" s="74" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
@@ -2018,10 +2018,10 @@
         <v>8</v>
       </c>
       <c r="J8" s="77" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="K8" s="74" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
@@ -2051,10 +2051,10 @@
         <v>8</v>
       </c>
       <c r="J9" s="77" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="K9" s="74" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
@@ -2084,15 +2084,15 @@
         <v>8</v>
       </c>
       <c r="J10" s="77" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="K10" s="74" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="18" x14ac:dyDescent="0.3">
       <c r="F12" s="78" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
@@ -2161,7 +2161,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>2</v>
@@ -2170,13 +2170,13 @@
         <v>3</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="I1" s="8" t="s">
         <v>4</v>
@@ -2220,7 +2220,7 @@
         <v>8</v>
       </c>
       <c r="K2" s="82" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.3">
@@ -2246,10 +2246,10 @@
         <v>8</v>
       </c>
       <c r="J3" s="87" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="K3" s="82" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="L3" s="10"/>
       <c r="M3" s="10"/>
@@ -2280,7 +2280,7 @@
         <v>4326</v>
       </c>
       <c r="K4" s="82" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="L4" s="10"/>
       <c r="M4" s="10"/>
@@ -2311,7 +2311,7 @@
         <v>41</v>
       </c>
       <c r="K5" s="82" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="L5" s="10"/>
       <c r="M5" s="10"/>
@@ -2342,7 +2342,7 @@
         <v>43</v>
       </c>
       <c r="K6" s="82" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="L6" s="10"/>
       <c r="M6" s="10"/>
@@ -2373,7 +2373,7 @@
         <v>48001</v>
       </c>
       <c r="K7" s="82" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="L7" s="10"/>
       <c r="M7" s="10"/>
@@ -2402,7 +2402,7 @@
       </c>
       <c r="J8" s="85"/>
       <c r="K8" s="82" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="L8" s="10"/>
       <c r="M8" s="10"/>
@@ -2433,7 +2433,7 @@
         <v>22</v>
       </c>
       <c r="K9" s="82" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="L9" s="10"/>
       <c r="M9" s="10"/>
@@ -2464,7 +2464,7 @@
         <v>50</v>
       </c>
       <c r="K10" s="82" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="L10" s="10"/>
       <c r="M10" s="10"/>
@@ -2495,7 +2495,7 @@
         <v>51</v>
       </c>
       <c r="K11" s="82" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="L11" s="10"/>
       <c r="M11" s="10"/>
@@ -2568,7 +2568,7 @@
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F19" sqref="F19"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2595,7 +2595,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="110" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="D1" s="110" t="s">
         <v>2</v>
@@ -2604,13 +2604,13 @@
         <v>3</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="I1" s="8" t="s">
         <v>4</v>
@@ -2624,7 +2624,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="27" t="s">
-        <v>52</v>
+        <v>133</v>
       </c>
       <c r="B2" s="17" t="s">
         <v>21</v>
@@ -2644,12 +2644,12 @@
       <c r="I2" s="33"/>
       <c r="J2" s="114"/>
       <c r="K2" s="38" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="39" t="s">
-        <v>53</v>
+        <v>134</v>
       </c>
       <c r="B3" s="22" t="s">
         <v>16</v>
@@ -2670,15 +2670,15 @@
         <v>8</v>
       </c>
       <c r="J3" s="112" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="K3" s="38" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="27" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B4" s="18" t="s">
         <v>16</v>
@@ -2699,18 +2699,18 @@
         <v>8</v>
       </c>
       <c r="J4" s="112" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="K4" s="38" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="27" t="s">
-        <v>56</v>
+        <v>135</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C5" s="18" t="s">
         <v>8</v>
@@ -2728,15 +2728,15 @@
         <v>8</v>
       </c>
       <c r="J5" s="112" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="K5" s="38" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="27" t="s">
-        <v>55</v>
+        <v>136</v>
       </c>
       <c r="B6" s="18" t="s">
         <v>40</v>
@@ -2757,15 +2757,15 @@
         <v>8</v>
       </c>
       <c r="J6" s="112" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="K6" s="38" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="27" t="s">
-        <v>54</v>
+        <v>137</v>
       </c>
       <c r="B7" s="18" t="s">
         <v>16</v>
@@ -2786,15 +2786,15 @@
         <v>8</v>
       </c>
       <c r="J7" s="112" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="K7" s="38" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="27" t="s">
-        <v>58</v>
+        <v>138</v>
       </c>
       <c r="B8" s="18" t="s">
         <v>40</v>
@@ -2815,15 +2815,15 @@
         <v>8</v>
       </c>
       <c r="J8" s="112" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="K8" s="38" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="36" t="s">
-        <v>60</v>
+        <v>139</v>
       </c>
       <c r="B9" s="12" t="s">
         <v>36</v>
@@ -2845,12 +2845,12 @@
       </c>
       <c r="J9" s="112"/>
       <c r="K9" s="48" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="36" t="s">
-        <v>61</v>
+        <v>140</v>
       </c>
       <c r="B10" s="12" t="s">
         <v>36</v>
@@ -2871,15 +2871,15 @@
         <v>8</v>
       </c>
       <c r="J10" s="112" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="K10" s="48" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="36" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="B11" s="11" t="s">
         <v>49</v>
@@ -2903,12 +2903,12 @@
         <v>39842</v>
       </c>
       <c r="K11" s="48" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="36" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="B12" s="11" t="s">
         <v>49</v>
@@ -2930,12 +2930,12 @@
       </c>
       <c r="J12" s="112"/>
       <c r="K12" s="48" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>70</v>
+        <v>141</v>
       </c>
       <c r="B13" s="17" t="s">
         <v>17</v>
@@ -2956,15 +2956,15 @@
         <v>8</v>
       </c>
       <c r="J13" s="112" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="K13" s="38" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="B14" s="17" t="s">
         <v>17</v>
@@ -2985,10 +2985,10 @@
         <v>8</v>
       </c>
       <c r="J14" s="112" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="K14" s="38" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
@@ -3033,7 +3033,7 @@
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K6" sqref="K6"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3060,7 +3060,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="110" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="D1" s="110" t="s">
         <v>2</v>
@@ -3069,13 +3069,13 @@
         <v>3</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="I1" s="8" t="s">
         <v>4</v>
@@ -3089,7 +3089,7 @@
     </row>
     <row r="2" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="116" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="B2" s="117" t="s">
         <v>21</v>
@@ -3114,7 +3114,7 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="27" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="B3" s="18" t="s">
         <v>21</v>
@@ -3135,10 +3135,10 @@
         <v>8</v>
       </c>
       <c r="J3" s="89" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="K3" s="48" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
@@ -3164,15 +3164,15 @@
         <v>8</v>
       </c>
       <c r="J4" s="89" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="K4" s="48" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="24" x14ac:dyDescent="0.3">
       <c r="A5" s="27" t="s">
-        <v>53</v>
+        <v>134</v>
       </c>
       <c r="B5" s="18" t="s">
         <v>21</v>
@@ -3193,10 +3193,10 @@
         <v>8</v>
       </c>
       <c r="J5" s="89" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="K5" s="48" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="24" x14ac:dyDescent="0.3">
@@ -3222,10 +3222,10 @@
         <v>8</v>
       </c>
       <c r="J6" s="89" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="K6" s="48" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
@@ -3310,9 +3310,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0292DBD0-9449-426F-89D5-E70E5E92E32E}">
   <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G14" sqref="G14"/>
+      <selection pane="bottomLeft" activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3344,13 +3344,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="92" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="F1" s="93" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="G1" s="94" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="H1" s="95" t="s">
         <v>4</v>
@@ -3364,7 +3364,7 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="97" t="s">
-        <v>98</v>
+        <v>142</v>
       </c>
       <c r="B2" s="98" t="s">
         <v>21</v>
@@ -3381,12 +3381,12 @@
       <c r="H2" s="101"/>
       <c r="I2" s="101"/>
       <c r="J2" s="102" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="97" t="s">
-        <v>52</v>
+        <v>133</v>
       </c>
       <c r="B3" s="98" t="s">
         <v>21</v>
@@ -3407,12 +3407,12 @@
         <v>10</v>
       </c>
       <c r="J3" s="102" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="97" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="B4" s="98" t="s">
         <v>21</v>
@@ -3433,7 +3433,7 @@
         <v>10755</v>
       </c>
       <c r="J4" s="102" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -3441,7 +3441,7 @@
     </row>
     <row r="7" spans="1:10" ht="18" x14ac:dyDescent="0.3">
       <c r="E7" s="78" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
